--- a/data/dataDriver.xlsx
+++ b/data/dataDriver.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="baidu_search" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="测试用例集合" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="52">
   <si>
     <t>baidu01</t>
   </si>
@@ -58,23 +58,23 @@
   </si>
   <si>
     <t>https://www.baidu.com</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>测试用例序号</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>用例步骤序号</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>测试步骤描述</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>打开浏览器</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -91,31 +91,31 @@
       </rPr>
       <t>aidu</t>
     </r>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>输入搜索关键词</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>点击【搜索】</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>等你妈</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>关键字</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>操作值</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>关闭浏览器</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>testStep06</t>
@@ -135,11 +135,11 @@
       </rPr>
       <t>1</t>
     </r>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>close_browser</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -167,11 +167,11 @@
       </rPr>
       <t>baidushouye</t>
     </r>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>126_login</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -185,40 +185,178 @@
       </rPr>
       <t>访问126</t>
     </r>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>http://mail.126.com/</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>断言首页关键字上
 有"邮箱账号登录"</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>assert_string</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮箱账号登录</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>127_login</t>
+  </si>
+  <si>
+    <t>等待</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>leep</t>
+    </r>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>testStep07</t>
+  </si>
+  <si>
+    <t>testStep08</t>
+  </si>
+  <si>
+    <t>等待</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>leep</t>
+    </r>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ssertIn</t>
+    </r>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>s1ds</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试用例序号</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试用例描述</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否运行</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>baidu01</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>baidu01</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>百度搜索关键字</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>126_login</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>126_login</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>访问</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>126</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>邮箱首页</t>
+    </r>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Tahoma"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -708,157 +846,157 @@
   </borders>
   <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="41">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="41" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="41">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="41" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="43" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="43" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="43" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="41" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="43" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1198,10 +1336,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1230,7 +1368,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -1245,7 +1383,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" ht="27">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1269,14 +1407,14 @@
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>19</v>
+      <c r="C4" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>8</v>
+        <v>35</v>
+      </c>
+      <c r="E4" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1287,12 +1425,14 @@
         <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
@@ -1301,100 +1441,149 @@
       <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>21</v>
+      <c r="C6" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
+      </c>
+      <c r="E6" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>27</v>
-      </c>
+      <c r="C7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="6" t="s">
-        <v>29</v>
+      <c r="A8" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="6" t="s">
-        <v>29</v>
+      <c r="A9" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>31</v>
+        <v>37</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="27.75">
+    <row r="10" spans="1:5">
       <c r="A10" s="6" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>34</v>
+        <v>1</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="6" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="27.75">
+      <c r="A13" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C14" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D14" s="4" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="19" type="noConversion"/>
+  <phoneticPr fontId="20" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1"/>
-    <hyperlink ref="E9" r:id="rId2"/>
+    <hyperlink ref="E11" r:id="rId1"/>
+    <hyperlink ref="E3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -1403,14 +1592,55 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData/>
-  <phoneticPr fontId="19" type="noConversion"/>
+  <cols>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
@@ -1422,7 +1652,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
-  <phoneticPr fontId="19" type="noConversion"/>
+  <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/dataDriver.xlsx
+++ b/data/dataDriver.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="baidu_search" sheetId="1" r:id="rId1"/>
-    <sheet name="测试用例集合" sheetId="2" r:id="rId2"/>
+    <sheet name="testsuite" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
@@ -1383,7 +1383,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="27">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1595,7 +1595,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>

--- a/data/dataDriver.xlsx
+++ b/data/dataDriver.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715"/>
   </bookViews>
   <sheets>
     <sheet name="baidu_search" sheetId="1" r:id="rId1"/>
@@ -294,10 +294,6 @@
   </si>
   <si>
     <t>y</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>126_login</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -335,6 +331,10 @@
       </rPr>
       <t>邮箱首页</t>
     </r>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>126_login</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
@@ -1338,8 +1338,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1594,8 +1594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1628,10 +1628,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" t="s">
         <v>50</v>
-      </c>
-      <c r="B3" t="s">
-        <v>51</v>
       </c>
       <c r="C3" t="s">
         <v>48</v>

--- a/data/dataDriver.xlsx
+++ b/data/dataDriver.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="baidu_search" sheetId="1" r:id="rId1"/>
     <sheet name="testsuite" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="49">
   <si>
     <t>测试用例序号</t>
   </si>
@@ -145,9 +145,6 @@
     <t>等你妈</t>
   </si>
   <si>
-    <t>waitfor_element</t>
-  </si>
-  <si>
     <t>homepage.baidushouye</t>
   </si>
   <si>
@@ -253,7 +250,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>126</t>
     </r>
@@ -266,19 +263,17 @@
       </rPr>
       <t>邮箱首页</t>
     </r>
+  </si>
+  <si>
+    <t>waitfor</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -309,7 +304,7 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="Tahoma"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11.3"/>
@@ -320,148 +315,16 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <sz val="9"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -470,236 +333,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.399975585192419"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -717,214 +361,14 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
@@ -935,79 +379,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="50">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="50" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="50" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="51">
+  <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="注释 2" xfId="19"/>
-    <cellStyle name="标题 1" xfId="20" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="21" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="22" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="23" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="24" builtinId="44"/>
-    <cellStyle name="输出" xfId="25" builtinId="21"/>
-    <cellStyle name="计算" xfId="26" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="27" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="28" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="30" builtinId="24"/>
-    <cellStyle name="汇总" xfId="31" builtinId="25"/>
-    <cellStyle name="好" xfId="32" builtinId="26"/>
-    <cellStyle name="适中" xfId="33" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="34" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="35" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="36" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="37" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="38" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="39" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="40" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="41" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="42" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="43" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="44" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="46" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="48" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="49" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="50"/>
+    <cellStyle name="常规 2" xfId="3"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="注释 2" xfId="2"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1296,19 +694,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="2" width="13" customWidth="1"/>
     <col min="3" max="4" width="17.25" customWidth="1"/>
@@ -1339,7 +737,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -1357,7 +755,7 @@
       </c>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -1375,7 +773,7 @@
       </c>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
@@ -1393,7 +791,7 @@
       </c>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -1413,7 +811,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -1431,7 +829,7 @@
       </c>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
@@ -1449,7 +847,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:7">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -1460,31 +858,31 @@
         <v>30</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="3" t="s">
+      <c r="B9" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="C9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="F9" s="6"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>8</v>
@@ -1500,27 +898,27 @@
       </c>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:7">
       <c r="A11" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:7">
       <c r="A12" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>12</v>
@@ -1536,60 +934,59 @@
       </c>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" ht="27" spans="1:6">
+    <row r="13" spans="1:7" ht="27.75">
       <c r="A13" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="E13" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="F13" s="7"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>36</v>
-      </c>
       <c r="F14" s="6"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E11" r:id="rId1" display="http://mail.126.com/"/>
-    <hyperlink ref="E3" r:id="rId2" display="https://www.baidu.com"/>
+    <hyperlink ref="E11" r:id="rId1"/>
+    <hyperlink ref="E3" r:id="rId2"/>
   </hyperlinks>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="2" width="15.125" customWidth="1"/>
@@ -1600,56 +997,53 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" t="s">
         <v>46</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" t="s">
-        <v>48</v>
-      </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/dataDriver.xlsx
+++ b/data/dataDriver.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="baidu_search" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="50">
   <si>
     <t>测试用例序号</t>
   </si>
@@ -266,6 +266,10 @@
   </si>
   <si>
     <t>waitfor</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>n</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -375,7 +379,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -398,6 +402,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -702,7 +707,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -982,8 +987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1013,8 +1018,8 @@
       <c r="B2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C2" t="s">
-        <v>46</v>
+      <c r="C2" s="10" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:4">

--- a/data/dataDriver.xlsx
+++ b/data/dataDriver.xlsx
@@ -269,7 +269,7 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>n</t>
+    <t>y</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -708,7 +708,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -988,7 +988,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
